--- a/etf_analysis/NLR/NLR_predicted_results_final.xlsx
+++ b/etf_analysis/NLR/NLR_predicted_results_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyin1\OneDrive\uni-hers\Projects and Competitions\Citi 24\Citi-Comp-24\etf_analysis\NLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDABF95-9458-40CC-915E-A3C5449CC8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA967B-7108-4CFE-8C0E-6D312217AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -117,10 +117,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -170,13 +170,2691 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="417FAC"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$217</c:f>
+              <c:numCache>
+                <c:formatCode>[$-C09]dd\-mmm\-yy;@</c:formatCode>
+                <c:ptCount val="216"/>
+                <c:pt idx="0">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44344</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44372</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44519</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44526</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44533</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44540</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44547</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44554</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44596</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44827</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44953</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44960</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44967</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>45023</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>45030</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>45037</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45065</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45072</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45079</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45093</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>45100</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45114</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45121</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45128</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>45135</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45142</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45149</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45156</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45163</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>45177</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45184</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45191</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45198</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45205</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45212</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45219</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45226</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45233</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45240</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45247</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45254</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45275</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>45282</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45331</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>45499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="216"/>
+                <c:pt idx="0">
+                  <c:v>44.443451028124812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.77082233263674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.076168391214473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.148220955377411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.336675060200022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.77067431220717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.301205179814943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.694238770715607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.824121072135341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.662382942005031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.383417516303673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.529075185409411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.793273418905187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.155916699948691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.78227989115679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.818355014138099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.159484738579678</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.777263067000639</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.77030172817642</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.34400568440158</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.346527832424613</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.103392899736967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.712328357337441</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.573307005481283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.465469106676622</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.659825499239922</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.759579348676702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.864816493686952</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48.296201872112277</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49.130243515510671</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.188733499502568</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.724209512182917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.85479739777427</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.922394513396959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.794387968481857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.974068358986877</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.179450654715581</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48.430332785227613</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.409945274138309</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.983571199409333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.299626215777053</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52.311576667320963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52.404775028614331</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.357032851029381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53.532314028444993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53.3439245548118</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53.575063599290999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54.540634965826882</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53.913550945147499</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.487286224944533</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.362438532854327</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54.872111506730569</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.535988223705061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.963312591664057</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52.982339392528267</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52.830047372914187</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52.574224188021333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.582315323127318</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.196642530332348</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52.506287539235558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.095995137988318</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53.081450224698337</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52.81419369714088</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.511770675758719</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>55.017532544538888</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>55.370805541540271</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>55.338596345145803</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53.692165642969428</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>53.308684476546311</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54.812628373685307</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55.886030630537448</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56.973876665537396</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.833764304509337</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.673170263343358</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.382532741291222</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>55.546433695240438</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>55.258961378006802</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>53.732844175098293</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>55.423216038157094</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>55.117445252474262</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>54.054173806467666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>54.827589597802238</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>54.909543885290148</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54.775258779218483</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>53.565326768234613</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>52.079559780283788</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>53.697009018383362</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.119739702034678</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52.930822876563909</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>52.569989966551553</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>54.126841459116697</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55.043423995754821</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>55.691461745282453</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>55.892366637917291</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>57.236806769194693</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58.267395875856508</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>58.967842712649457</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>58.076245380455823</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>55.647460538514032</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>55.441424188993537</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>53.427371217672039</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>55.25295426417707</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>57.079668059580953</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>56.709960657492168</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>55.758770521188367</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>51.061957448299502</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>51.861198134009818</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>52.776304532598097</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>52.562492481811702</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>52.623121073767038</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>52.853147352853782</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>54.980803109487447</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>55.257612737162731</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>56.654899624413488</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>56.343780541744962</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56.565840542267978</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>55.773010182089507</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>56.984979645478099</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>56.079739042640981</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>54.233894294206031</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>52.329393934081359</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>53.427949107866617</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>50.197911356071337</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>51.944203394820292</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54.121699205285843</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>53.390908188077283</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>55.131573039392222</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>55.10635692103773</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56.053454663481027</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56.956123612637768</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54.853968462549702</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>55.092902879847607</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>54.278085623222637</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>54.852272467498182</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>54.94802977860774</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>56.827717926418792</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56.000622138683163</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57.852128892176538</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>58.131728859044188</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>56.889336491508843</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>57.710990608338669</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>55.349951497682902</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>55.910619987679539</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>54.11094498721932</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>53.405132663501043</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>52.628830935719172</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>55.212273310257331</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>54.719224128287408</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56.271360159973042</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>55.157090497360286</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>55.81646460336264</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>56.037238588084001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57.917759439349517</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>55.874507408005329</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>54.973639519245033</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>56.512159752300128</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>58.712000967871219</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>60.15171119349791</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>58.84419071874818</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>58.966603939641558</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>58.469651177620648</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>60.821090321602973</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>60.514897547144827</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>59.914456891435378</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>60.32045286181431</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>61.926878420083298</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>61.004482047399023</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>63.567663354523752</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>64.721410094484256</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>65.588480436299903</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>69.810451109794315</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>70.028141710826219</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>71.076874556007681</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.407716834160638</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>68.438117944365857</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>68.095146942649919</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>68.199041579814093</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>71.461166650642227</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>69.813845521688251</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>73.031682335704829</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>74.697716239382956</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>73.158115735996972</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>72.856667582477684</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>74.287907897675794</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>70.405442471919912</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>71.517200566144012</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>70.945160368187146</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>75.893736509982119</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>75.85191706484089</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>74.510034195333304</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>77.325809487544205</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>75.557261188127981</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>72.984089984555638</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>70.973718572770892</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>73.594596941250529</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>75.494437060104332</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>72.44865152767315</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>75.095088462198561</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>75.126218062184364</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>79.505561495748736</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>78.363527178610866</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>78.733873812699258</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>79.104220446787664</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>79.474567080876056</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>79.844913714964463</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>80.215260349052855</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>80.585606983141261</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>80.955953617229667</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>81.32630025131806</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>81.696646885406466</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>82.066993519494858</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>82.437340153583264</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>82.807686787671656</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>83.178033421760063</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>83.548380055848469</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>83.918726689936861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37DF-447C-B491-E7C46EF832D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bull</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="2D8FD4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$217</c:f>
+              <c:numCache>
+                <c:formatCode>[$-C09]dd\-mmm\-yy;@</c:formatCode>
+                <c:ptCount val="216"/>
+                <c:pt idx="0">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44344</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44372</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44519</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44526</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44533</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44540</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44547</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44554</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44596</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44827</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44953</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44960</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44967</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>45023</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>45030</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>45037</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45065</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45072</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45079</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45093</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>45100</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45114</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45121</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45128</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>45135</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45142</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45149</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45156</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45163</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>45177</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45184</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45191</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45198</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45205</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45212</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45219</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45226</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45233</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45240</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45247</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45254</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45275</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>45282</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45331</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>45499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="216"/>
+                <c:pt idx="0">
+                  <c:v>44.443451028124812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.77082233263674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.076168391214473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.148220955377411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.336675060200022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.77067431220717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.301205179814943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.694238770715607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.824121072135341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.662382942005031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.383417516303673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.529075185409411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.793273418905187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.155916699948691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.78227989115679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.818355014138099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.159484738579678</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.777263067000639</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.77030172817642</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.34400568440158</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.346527832424613</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.103392899736967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.712328357337441</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.573307005481283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.465469106676622</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.659825499239922</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.759579348676702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.864816493686952</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48.296201872112277</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49.130243515510671</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.188733499502568</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.724209512182917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.85479739777427</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.922394513396959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.794387968481857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.974068358986877</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.179450654715581</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48.430332785227613</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.409945274138309</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.983571199409333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.299626215777053</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52.311576667320963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52.404775028614331</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.357032851029381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53.532314028444993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53.3439245548118</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53.575063599290999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54.540634965826882</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53.913550945147499</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.487286224944533</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.362438532854327</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54.872111506730569</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.535988223705061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.963312591664057</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52.982339392528267</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52.830047372914187</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52.574224188021333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.582315323127318</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.196642530332348</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52.506287539235558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.095995137988318</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53.081450224698337</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52.81419369714088</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.511770675758719</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>55.017532544538888</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>55.370805541540271</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>55.338596345145803</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53.692165642969428</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>53.308684476546311</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54.812628373685307</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55.886030630537448</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56.973876665537396</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.833764304509337</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.673170263343358</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.382532741291222</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>55.546433695240438</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>55.258961378006802</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>53.732844175098293</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>55.423216038157094</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>55.117445252474262</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>54.054173806467666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>54.827589597802238</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>54.909543885290148</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54.775258779218483</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>53.565326768234613</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>52.079559780283788</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>53.697009018383362</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.119739702034678</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52.930822876563909</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>52.569989966551553</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>54.126841459116697</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55.043423995754821</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>55.691461745282453</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>55.892366637917291</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>57.236806769194693</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58.267395875856508</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>58.967842712649457</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>58.076245380455823</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>55.647460538514032</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>55.441424188993537</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>53.427371217672039</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>55.25295426417707</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>57.079668059580953</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>56.709960657492168</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>55.758770521188367</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>51.061957448299502</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>51.861198134009818</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>52.776304532598097</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>52.562492481811702</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>52.623121073767038</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>52.853147352853782</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>54.980803109487447</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>55.257612737162731</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>56.654899624413488</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>56.343780541744962</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56.565840542267978</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>55.773010182089507</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>56.984979645478099</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>56.079739042640981</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>54.233894294206031</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>52.329393934081359</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>53.427949107866617</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>50.197911356071337</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>51.944203394820292</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54.121699205285843</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>53.390908188077283</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>55.131573039392222</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>55.10635692103773</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56.053454663481027</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56.956123612637768</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54.853968462549702</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>55.092902879847607</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>54.278085623222637</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>54.852272467498182</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>54.94802977860774</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>56.827717926418792</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56.000622138683163</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57.852128892176538</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>58.131728859044188</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>56.889336491508843</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>57.710990608338669</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>55.349951497682902</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>55.910619987679539</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>54.11094498721932</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>53.405132663501043</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>52.628830935719172</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>55.212273310257331</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>54.719224128287408</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56.271360159973042</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>55.157090497360286</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>55.81646460336264</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>56.037238588084001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57.917759439349517</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>55.874507408005329</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>54.973639519245033</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>56.512159752300128</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>58.712000967871219</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>60.15171119349791</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>58.84419071874818</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>58.966603939641558</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>58.469651177620648</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>60.821090321602973</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>60.514897547144827</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>59.914456891435378</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>60.32045286181431</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>61.926878420083298</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>61.004482047399023</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>63.567663354523752</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>64.721410094484256</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>65.588480436299903</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>69.810451109794315</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>70.028141710826219</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>71.076874556007681</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.407716834160638</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>68.438117944365857</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>68.095146942649919</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>68.199041579814093</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>71.461166650642227</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>69.813845521688251</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>73.031682335704829</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>74.697716239382956</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>73.158115735996972</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>72.856667582477684</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>74.287907897675794</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>70.405442471919912</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>71.517200566144012</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>70.945160368187146</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>75.893736509982119</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>75.85191706484089</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>74.510034195333304</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>77.325809487544205</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>75.557261188127981</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>72.984089984555638</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>70.973718572770892</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>73.594596941250529</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>75.494437060104332</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>72.44865152767315</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>75.095088462198561</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>75.126218062184364</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>79.505561495748736</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>78.439383482182294</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>79.075227178770689</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>79.711070875359084</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>80.346914571947494</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>80.982758268535889</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>81.618601965124284</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>82.25444566171268</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>82.890289358301089</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>83.526133054889485</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>84.16197675147788</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>84.79782044806629</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>85.433664144654685</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>86.06950784124308</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>86.70535153783149</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>87.341195234419885</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>87.977038931008281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37DF-447C-B491-E7C46EF832D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Base</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="3742AE"/>
               </a:solidFill>
@@ -1509,2691 +4187,13 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Bear</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="417FAC"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$217</c:f>
-              <c:numCache>
-                <c:formatCode>[$-C09]dd\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>43994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44029</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44036</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44050</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44057</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44064</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44071</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44085</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44092</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44099</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44106</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44113</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44120</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44127</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44141</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44148</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44155</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44162</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44169</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44176</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44183</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44190</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44204</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44211</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44218</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44232</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44239</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44246</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44260</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44267</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44274</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44281</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44288</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44302</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44309</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44323</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44330</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44337</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44344</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44351</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44358</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44365</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44372</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44379</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44386</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44393</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44400</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44414</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44421</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44428</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44435</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44442</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44449</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44456</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44463</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44470</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44477</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44484</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44491</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44505</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44512</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44519</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44526</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44533</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44540</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44547</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44554</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44568</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44575</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44582</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44596</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44603</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44610</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44617</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44624</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44631</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44638</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44645</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44659</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44666</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44687</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44694</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44701</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44708</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44715</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44722</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44729</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44736</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44750</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44757</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44764</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44778</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44785</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44792</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44799</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44806</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44813</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44820</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44827</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44841</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44848</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44855</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44862</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44869</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44876</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44883</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44890</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44897</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44904</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44911</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44918</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44925</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44932</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44939</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44946</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44953</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44960</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44967</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44974</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44981</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44988</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44995</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>45002</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>45009</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>45016</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>45023</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>45030</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>45037</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>45044</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>45051</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>45058</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>45065</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>45072</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>45079</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>45093</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>45100</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>45114</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>45121</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>45128</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>45135</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>45142</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>45149</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>45156</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>45163</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>45170</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>45177</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>45184</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>45191</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>45198</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>45205</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>45212</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>45219</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>45226</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>45233</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>45240</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>45247</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>45254</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>45268</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>45275</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>45282</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>45289</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>45303</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>45310</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>45317</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>45324</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>45331</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>45338</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>45345</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>45352</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>45359</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>45366</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>45373</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>45380</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>45387</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>45394</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>45401</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>45408</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>45415</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>45443</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>45450</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>45457</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>45471</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>45499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>44.443451028124812</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.77082233263674</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.076168391214473</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.148220955377411</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.336675060200022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.77067431220717</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45.301205179814943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44.694238770715607</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44.824121072135341</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.662382942005031</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44.383417516303673</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44.529075185409411</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44.793273418905187</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44.155916699948691</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.78227989115679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.818355014138099</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45.159484738579678</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>46.777263067000639</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46.77030172817642</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>47.34400568440158</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45.346527832424613</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>47.103392899736967</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48.712328357337441</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48.573307005481283</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49.465469106676622</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48.659825499239922</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48.759579348676702</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49.864816493686952</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48.296201872112277</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>49.130243515510671</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50.188733499502568</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>49.724209512182917</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>49.85479739777427</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.922394513396959</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49.794387968481857</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>50.974068358986877</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50.179450654715581</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48.430332785227613</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48.409945274138309</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50.983571199409333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>52.299626215777053</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>52.311576667320963</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>52.404775028614331</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>53.357032851029381</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>53.532314028444993</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>53.3439245548118</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>53.575063599290999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>54.540634965826882</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>53.913550945147499</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54.487286224944533</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>54.362438532854327</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>54.872111506730569</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>55.535988223705061</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.963312591664057</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>52.982339392528267</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>52.830047372914187</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>52.574224188021333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>52.582315323127318</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>52.196642530332348</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>52.506287539235558</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>52.095995137988318</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>53.081450224698337</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>52.81419369714088</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>53.511770675758719</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>55.017532544538888</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>55.370805541540271</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>55.338596345145803</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>53.692165642969428</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>53.308684476546311</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>54.812628373685307</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>55.886030630537448</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>56.973876665537396</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>55.833764304509337</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>56.673170263343358</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>56.382532741291222</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>55.546433695240438</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>55.258961378006802</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>53.732844175098293</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>55.423216038157094</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>55.117445252474262</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>54.054173806467666</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>54.827589597802238</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>54.909543885290148</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>54.775258779218483</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>53.565326768234613</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>52.079559780283788</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>53.697009018383362</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>54.119739702034678</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>52.930822876563909</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>52.569989966551553</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>54.126841459116697</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>55.043423995754821</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>55.691461745282453</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>55.892366637917291</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>57.236806769194693</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>58.267395875856508</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>58.967842712649457</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>58.076245380455823</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>55.647460538514032</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>55.441424188993537</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>53.427371217672039</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>55.25295426417707</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>57.079668059580953</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>56.709960657492168</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>55.758770521188367</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>51.061957448299502</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>51.861198134009818</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>52.776304532598097</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>52.562492481811702</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>52.623121073767038</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>52.853147352853782</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>54.980803109487447</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>55.257612737162731</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>56.654899624413488</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>56.343780541744962</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>56.565840542267978</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>55.773010182089507</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>56.984979645478099</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>56.079739042640981</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>54.233894294206031</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>52.329393934081359</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>53.427949107866617</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>50.197911356071337</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>51.944203394820292</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>54.121699205285843</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>53.390908188077283</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>55.131573039392222</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>55.10635692103773</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>56.053454663481027</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>56.956123612637768</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>54.853968462549702</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>55.092902879847607</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>54.278085623222637</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>54.852272467498182</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>54.94802977860774</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>56.827717926418792</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>56.000622138683163</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>57.852128892176538</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>58.131728859044188</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>56.889336491508843</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>57.710990608338669</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>55.349951497682902</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>55.910619987679539</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>54.11094498721932</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>53.405132663501043</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>52.628830935719172</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>55.212273310257331</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>54.719224128287408</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>56.271360159973042</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>55.157090497360286</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>55.81646460336264</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>56.037238588084001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57.917759439349517</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>55.874507408005329</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>54.973639519245033</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>56.512159752300128</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>58.712000967871219</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>60.15171119349791</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>58.84419071874818</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>58.966603939641558</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>58.469651177620648</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>60.821090321602973</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>60.514897547144827</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>59.914456891435378</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>60.32045286181431</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>61.926878420083298</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>61.004482047399023</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>63.567663354523752</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>64.721410094484256</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>65.588480436299903</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>69.810451109794315</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>70.028141710826219</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>71.076874556007681</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>67.407716834160638</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>68.438117944365857</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>68.095146942649919</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>68.199041579814093</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>71.461166650642227</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>69.813845521688251</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>73.031682335704829</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>74.697716239382956</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>73.158115735996972</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>72.856667582477684</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>74.287907897675794</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>70.405442471919912</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>71.517200566144012</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>70.945160368187146</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>75.893736509982119</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>75.85191706484089</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>74.510034195333304</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>77.325809487544205</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>75.557261188127981</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>72.984089984555638</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>70.973718572770892</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>73.594596941250529</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>75.494437060104332</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>72.44865152767315</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>75.095088462198561</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>75.126218062184364</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>79.505561495748736</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>78.363527178610866</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>78.733873812699258</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>79.104220446787664</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>79.474567080876056</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>79.844913714964463</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>80.215260349052855</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>80.585606983141261</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>80.955953617229667</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>81.32630025131806</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>81.696646885406466</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>82.066993519494858</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>82.437340153583264</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>82.807686787671656</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>83.178033421760063</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>83.548380055848469</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>83.918726689936861</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-37DF-447C-B491-E7C46EF832D2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Bull</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="2D8FD4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$217</c:f>
-              <c:numCache>
-                <c:formatCode>[$-C09]dd\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>43994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44029</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44036</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44050</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44057</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44064</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44071</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44085</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44092</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44099</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44106</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44113</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44120</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44127</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44141</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44148</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44155</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44162</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44169</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44176</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44183</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44190</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44204</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44211</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44218</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44232</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44239</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44246</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44260</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44267</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44274</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44281</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44288</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44302</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44309</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44323</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44330</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44337</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44344</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44351</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44358</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44365</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44372</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44379</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44386</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44393</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44400</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44414</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44421</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44428</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44435</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44442</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44449</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44456</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44463</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44470</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44477</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44484</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44491</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44505</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44512</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44519</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44526</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44533</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44540</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44547</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44554</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44568</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44575</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44582</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44596</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44603</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44610</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44617</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44624</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44631</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44638</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44645</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44659</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44666</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44687</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44694</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44701</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44708</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44715</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44722</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44729</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44736</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44750</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44757</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44764</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44778</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44785</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44792</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44799</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44806</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44813</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44820</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44827</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44841</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44848</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44855</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44862</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44869</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44876</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44883</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44890</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44897</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44904</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44911</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44918</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44925</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44932</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44939</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44946</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44953</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44960</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44967</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44974</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44981</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44988</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44995</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>45002</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>45009</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>45016</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>45023</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>45030</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>45037</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>45044</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>45051</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>45058</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>45065</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>45072</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>45079</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>45093</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>45100</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>45114</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>45121</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>45128</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>45135</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>45142</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>45149</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>45156</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>45163</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>45170</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>45177</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>45184</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>45191</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>45198</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>45205</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>45212</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>45219</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>45226</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>45233</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>45240</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>45247</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>45254</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>45268</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>45275</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>45282</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>45289</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>45303</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>45310</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>45317</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>45324</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>45331</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>45338</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>45345</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>45352</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>45359</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>45366</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>45373</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>45380</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>45387</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>45394</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>45401</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>45408</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>45415</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>45443</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>45450</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>45457</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>45471</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>45499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>44.443451028124812</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.77082233263674</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.076168391214473</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.148220955377411</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.336675060200022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.77067431220717</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45.301205179814943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44.694238770715607</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44.824121072135341</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.662382942005031</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44.383417516303673</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44.529075185409411</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44.793273418905187</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44.155916699948691</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.78227989115679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.818355014138099</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45.159484738579678</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>46.777263067000639</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46.77030172817642</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>47.34400568440158</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45.346527832424613</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>47.103392899736967</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48.712328357337441</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48.573307005481283</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49.465469106676622</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48.659825499239922</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48.759579348676702</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49.864816493686952</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48.296201872112277</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>49.130243515510671</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50.188733499502568</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>49.724209512182917</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>49.85479739777427</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.922394513396959</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49.794387968481857</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>50.974068358986877</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50.179450654715581</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48.430332785227613</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48.409945274138309</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50.983571199409333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>52.299626215777053</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>52.311576667320963</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>52.404775028614331</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>53.357032851029381</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>53.532314028444993</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>53.3439245548118</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>53.575063599290999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>54.540634965826882</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>53.913550945147499</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54.487286224944533</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>54.362438532854327</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>54.872111506730569</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>55.535988223705061</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.963312591664057</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>52.982339392528267</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>52.830047372914187</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>52.574224188021333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>52.582315323127318</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>52.196642530332348</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>52.506287539235558</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>52.095995137988318</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>53.081450224698337</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>52.81419369714088</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>53.511770675758719</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>55.017532544538888</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>55.370805541540271</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>55.338596345145803</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>53.692165642969428</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>53.308684476546311</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>54.812628373685307</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>55.886030630537448</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>56.973876665537396</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>55.833764304509337</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>56.673170263343358</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>56.382532741291222</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>55.546433695240438</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>55.258961378006802</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>53.732844175098293</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>55.423216038157094</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>55.117445252474262</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>54.054173806467666</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>54.827589597802238</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>54.909543885290148</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>54.775258779218483</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>53.565326768234613</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>52.079559780283788</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>53.697009018383362</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>54.119739702034678</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>52.930822876563909</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>52.569989966551553</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>54.126841459116697</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>55.043423995754821</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>55.691461745282453</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>55.892366637917291</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>57.236806769194693</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>58.267395875856508</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>58.967842712649457</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>58.076245380455823</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>55.647460538514032</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>55.441424188993537</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>53.427371217672039</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>55.25295426417707</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>57.079668059580953</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>56.709960657492168</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>55.758770521188367</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>51.061957448299502</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>51.861198134009818</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>52.776304532598097</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>52.562492481811702</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>52.623121073767038</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>52.853147352853782</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>54.980803109487447</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>55.257612737162731</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>56.654899624413488</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>56.343780541744962</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>56.565840542267978</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>55.773010182089507</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>56.984979645478099</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>56.079739042640981</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>54.233894294206031</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>52.329393934081359</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>53.427949107866617</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>50.197911356071337</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>51.944203394820292</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>54.121699205285843</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>53.390908188077283</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>55.131573039392222</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>55.10635692103773</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>56.053454663481027</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>56.956123612637768</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>54.853968462549702</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>55.092902879847607</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>54.278085623222637</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>54.852272467498182</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>54.94802977860774</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>56.827717926418792</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>56.000622138683163</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>57.852128892176538</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>58.131728859044188</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>56.889336491508843</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>57.710990608338669</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>55.349951497682902</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>55.910619987679539</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>54.11094498721932</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>53.405132663501043</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>52.628830935719172</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>55.212273310257331</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>54.719224128287408</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>56.271360159973042</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>55.157090497360286</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>55.81646460336264</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>56.037238588084001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57.917759439349517</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>55.874507408005329</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>54.973639519245033</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>56.512159752300128</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>58.712000967871219</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>60.15171119349791</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>58.84419071874818</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>58.966603939641558</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>58.469651177620648</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>60.821090321602973</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>60.514897547144827</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>59.914456891435378</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>60.32045286181431</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>61.926878420083298</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>61.004482047399023</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>63.567663354523752</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>64.721410094484256</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>65.588480436299903</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>69.810451109794315</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>70.028141710826219</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>71.076874556007681</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>67.407716834160638</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>68.438117944365857</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>68.095146942649919</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>68.199041579814093</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>71.461166650642227</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>69.813845521688251</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>73.031682335704829</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>74.697716239382956</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>73.158115735996972</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>72.856667582477684</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>74.287907897675794</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>70.405442471919912</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>71.517200566144012</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>70.945160368187146</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>75.893736509982119</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>75.85191706484089</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>74.510034195333304</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>77.325809487544205</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>75.557261188127981</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>72.984089984555638</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>70.973718572770892</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>73.594596941250529</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>75.494437060104332</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>72.44865152767315</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>75.095088462198561</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>75.126218062184364</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>79.505561495748736</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>78.439383482182294</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>79.075227178770689</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>79.711070875359084</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>80.346914571947494</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>80.982758268535889</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>81.618601965124284</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>82.25444566171268</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>82.890289358301089</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>83.526133054889485</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>84.16197675147788</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>84.79782044806629</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>85.433664144654685</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>86.06950784124308</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>86.70535153783149</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>87.341195234419885</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>87.977038931008281</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-37DF-447C-B491-E7C46EF832D2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
             <c:v>Historical Price</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="3A3A3A"/>
               </a:solidFill>
@@ -6611,8 +6611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
